--- a/数据整理/stocks/港股/00992-联想集团.xlsx
+++ b/数据整理/stocks/港股/00992-联想集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.94</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>000041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>华夏全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>900008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>中信证券稳健回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000041</t>
+          <t>900078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏全球精选股票(QDII)</t>
+          <t>中信证券稳健回报混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -996,15 +1176,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>93.34</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>900008</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合A</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>900078</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00992-联想集团.xlsx
+++ b/数据整理/stocks/港股/00992-联想集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00992-联想集团.xlsx
+++ b/数据整理/stocks/港股/00992-联想集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00992-联想集团.xlsx
+++ b/数据整理/stocks/港股/00992-联想集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.2</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>188.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.56</v>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1824,13 +1889,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00992-联想集团.xlsx
+++ b/数据整理/stocks/港股/00992-联想集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.33</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.2</v>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.56</v>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00992-联想集团.xlsx
+++ b/数据整理/stocks/港股/00992-联想集团.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,357 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0437</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.85</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -836,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -866,32 +622,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000041</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏全球精选股票(QDII)</t>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.43</t>
+          <t>233.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>96.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6177</t>
+          <t>8.4581</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -904,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>900008</t>
+          <t>513180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合A</t>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.27</t>
+          <t>89.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4224</t>
+          <t>3.4967</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -942,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>513010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>26.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2104</t>
+          <t>1.0155</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -980,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>900078</t>
+          <t>159740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合C</t>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>98.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1424</t>
+          <t>0.2866</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1018,36 +774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>159742</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0783</t>
+          <t>0.1477</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1056,36 +812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>159741</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>99.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0268</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1094,36 +850,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0997</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1132,36 +888,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>513890</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>上投摩根恒生科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0808</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1170,36 +926,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>013127</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>汇添富恒生科技指数（QDII）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0568</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1208,36 +964,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>513160</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>银华恒生港股通中国科技ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0448</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1246,36 +1002,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>013128</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>汇添富恒生科技指数（QDII）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1284,36 +1040,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1322,36 +1078,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>37.77</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1360,36 +1116,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>004321</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>64.32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1398,6 +1154,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>188.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1750,328 +1828,6 @@
       </c>
       <c r="H9" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513330</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏恒生互联网科技业ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>188.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.1550</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1454</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011647</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011648</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +1862,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2136,32 +1892,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>000041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏恒生互联网科技业ETF（QDII）</t>
+          <t>华夏全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>233.65</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.4581</t>
+          <t>0.6177</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2174,36 +1930,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513180</t>
+          <t>900008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>中信证券稳健回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>87.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.4967</t>
+          <t>0.4224</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2212,36 +1968,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513010</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.24</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0155</t>
+          <t>0.2104</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2250,36 +2006,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159740</t>
+          <t>900078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>中信证券稳健回报混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>87.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2866</t>
+          <t>0.1424</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2288,36 +2044,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159742</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1477</t>
+          <t>0.0783</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2326,36 +2082,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159741</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2364,36 +2120,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0997</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2402,36 +2158,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513890</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根恒生科技ETF（QDII）</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0808</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2440,36 +2196,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013127</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富恒生科技指数（QDII）A</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0568</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2478,36 +2234,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513160</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华恒生港股通中国科技ETF</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0448</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2516,36 +2272,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013128</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富恒生科技指数（QDII）C</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2554,36 +2310,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2592,36 +2348,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>37.77</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2630,36 +2386,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004321</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源沪港深强国产业灵活配置混合</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>64.32</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2673,112 +2429,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.85</v>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00992-联想集团.xlsx
+++ b/数据整理/stocks/港股/00992-联想集团.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>13.85</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>7.33</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.2</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.56</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -566,6 +583,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1153,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1475,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1835,7 +2022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2423,7 +2610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00992-联想集团.xlsx
+++ b/数据整理/stocks/港股/00992-联想集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>13.85</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>7.33</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.2</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.56</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1662,7 +1963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2022,7 +2323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2610,7 +2911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
